--- a/dataset/Dataset22-23.xlsx
+++ b/dataset/Dataset22-23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universita\MachineLearning\PrevisioniSerieA\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A31390A-9BA4-48FD-89EE-7E58D6C17244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E08D38-8954-4F12-93E2-0EB424820886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -185,13 +185,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -230,7 +237,7 @@
     <tableColumn id="20" xr3:uid="{2D2D17D1-85F7-4C21-A210-C1E9FA9C404C}" name="avversariob_xgxag"/>
     <tableColumn id="21" xr3:uid="{8E55F05A-83AB-4748-AE93-FD3C70492388}" name="avversariob_npzxg"/>
     <tableColumn id="22" xr3:uid="{A648B01D-DD58-4023-8996-0E83A48B1777}" name="avversariob_npxgxag"/>
-    <tableColumn id="23" xr3:uid="{5BA6F4D5-18A2-4ACB-9E66-19432C3BF489}" name="Risultato"/>
+    <tableColumn id="23" xr3:uid="{5BA6F4D5-18A2-4ACB-9E66-19432C3BF489}" name="Risultato" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,38 +532,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K355" workbookViewId="0">
-      <selection activeCell="W381" sqref="W381"/>
+    <sheetView tabSelected="1" topLeftCell="K232" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" customWidth="1"/>
+    <col min="21" max="21" width="19.5546875" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -694,11 +701,11 @@
       <c r="V2">
         <v>1.88</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -765,11 +772,11 @@
       <c r="V3">
         <v>1.66</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -836,11 +843,11 @@
       <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -907,11 +914,11 @@
       <c r="V5">
         <v>1.83</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -978,11 +985,11 @@
       <c r="V6">
         <v>1.36</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1049,11 +1056,11 @@
       <c r="V7">
         <v>1.82</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1120,11 +1127,11 @@
       <c r="V8">
         <v>1.79</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1191,11 +1198,11 @@
       <c r="V9">
         <v>1.93</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1262,11 +1269,11 @@
       <c r="V10">
         <v>1.67</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1333,11 +1340,11 @@
       <c r="V11">
         <v>2.29</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1404,11 +1411,11 @@
       <c r="V12">
         <v>2.19</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1475,11 +1482,11 @@
       <c r="V13">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1546,11 +1553,11 @@
       <c r="V14">
         <v>2.48</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1617,11 +1624,11 @@
       <c r="V15">
         <v>2.7</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1688,11 +1695,11 @@
       <c r="V16">
         <v>1.82</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1759,11 +1766,11 @@
       <c r="V17">
         <v>2.56</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1830,11 +1837,11 @@
       <c r="V18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1901,11 +1908,11 @@
       <c r="V19">
         <v>2.93</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1972,11 +1979,11 @@
       <c r="V20">
         <v>2.78</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2043,11 +2050,11 @@
       <c r="V21">
         <v>1.44</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2114,11 +2121,11 @@
       <c r="V22">
         <v>1.66</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2185,11 +2192,11 @@
       <c r="V23">
         <v>1.8</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2256,11 +2263,11 @@
       <c r="V24">
         <v>1.83</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2327,11 +2334,11 @@
       <c r="V25">
         <v>1.36</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2398,11 +2405,11 @@
       <c r="V26">
         <v>1.82</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2469,11 +2476,11 @@
       <c r="V27">
         <v>1.79</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2540,11 +2547,11 @@
       <c r="V28">
         <v>1.93</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2611,11 +2618,11 @@
       <c r="V29">
         <v>1.67</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2682,11 +2689,11 @@
       <c r="V30">
         <v>2.29</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -2753,11 +2760,11 @@
       <c r="V31">
         <v>2.19</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2824,11 +2831,11 @@
       <c r="V32">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -2895,11 +2902,11 @@
       <c r="V33">
         <v>2.48</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -2966,11 +2973,11 @@
       <c r="V34">
         <v>2.7</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -3037,11 +3044,11 @@
       <c r="V35">
         <v>1.82</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -3108,11 +3115,11 @@
       <c r="V36">
         <v>2.56</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3179,11 +3186,11 @@
       <c r="V37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -3250,11 +3257,11 @@
       <c r="V38">
         <v>2.93</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -3321,11 +3328,11 @@
       <c r="V39">
         <v>2.78</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -3392,11 +3399,11 @@
       <c r="V40">
         <v>1.44</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -3463,11 +3470,11 @@
       <c r="V41">
         <v>1.88</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -3534,11 +3541,11 @@
       <c r="V42">
         <v>1.8</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3605,11 +3612,11 @@
       <c r="V43">
         <v>1.83</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -3676,11 +3683,11 @@
       <c r="V44">
         <v>1.36</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -3747,11 +3754,11 @@
       <c r="V45">
         <v>1.82</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -3818,11 +3825,11 @@
       <c r="V46">
         <v>1.79</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -3889,11 +3896,11 @@
       <c r="V47">
         <v>1.93</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -3960,11 +3967,11 @@
       <c r="V48">
         <v>1.67</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -4031,11 +4038,11 @@
       <c r="V49">
         <v>2.29</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -4102,11 +4109,11 @@
       <c r="V50">
         <v>2.19</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -4173,11 +4180,11 @@
       <c r="V51">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -4244,11 +4251,11 @@
       <c r="V52">
         <v>2.48</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -4315,11 +4322,11 @@
       <c r="V53">
         <v>2.7</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -4386,11 +4393,11 @@
       <c r="V54">
         <v>1.82</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -4457,11 +4464,11 @@
       <c r="V55">
         <v>2.56</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -4528,11 +4535,11 @@
       <c r="V56">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W56">
+      <c r="W56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -4599,11 +4606,11 @@
       <c r="V57">
         <v>2.93</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -4670,11 +4677,11 @@
       <c r="V58">
         <v>2.78</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -4741,11 +4748,11 @@
       <c r="V59">
         <v>1.44</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -4812,11 +4819,11 @@
       <c r="V60">
         <v>1.88</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -4883,11 +4890,11 @@
       <c r="V61">
         <v>1.66</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -4954,11 +4961,11 @@
       <c r="V62">
         <v>1.83</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -5025,11 +5032,11 @@
       <c r="V63">
         <v>1.36</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W63" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -5096,11 +5103,11 @@
       <c r="V64">
         <v>1.82</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -5167,11 +5174,11 @@
       <c r="V65">
         <v>1.79</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -5238,11 +5245,11 @@
       <c r="V66">
         <v>1.93</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -5309,11 +5316,11 @@
       <c r="V67">
         <v>1.67</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -5380,11 +5387,11 @@
       <c r="V68">
         <v>2.29</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -5451,11 +5458,11 @@
       <c r="V69">
         <v>2.19</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -5522,11 +5529,11 @@
       <c r="V70">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W70">
+      <c r="W70" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -5593,11 +5600,11 @@
       <c r="V71">
         <v>2.48</v>
       </c>
-      <c r="W71" t="s">
+      <c r="W71" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -5664,11 +5671,11 @@
       <c r="V72">
         <v>2.7</v>
       </c>
-      <c r="W72" t="s">
+      <c r="W72" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -5735,11 +5742,11 @@
       <c r="V73">
         <v>1.82</v>
       </c>
-      <c r="W73">
+      <c r="W73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -5806,11 +5813,11 @@
       <c r="V74">
         <v>2.56</v>
       </c>
-      <c r="W74">
+      <c r="W74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -5877,11 +5884,11 @@
       <c r="V75">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -5948,11 +5955,11 @@
       <c r="V76">
         <v>2.93</v>
       </c>
-      <c r="W76" t="s">
+      <c r="W76" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -6019,11 +6026,11 @@
       <c r="V77">
         <v>2.78</v>
       </c>
-      <c r="W77">
+      <c r="W77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -6090,8 +6097,9 @@
       <c r="V78">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -6158,11 +6166,11 @@
       <c r="V79">
         <v>1.88</v>
       </c>
-      <c r="W79">
+      <c r="W79" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -6229,11 +6237,11 @@
       <c r="V80">
         <v>1.66</v>
       </c>
-      <c r="W80">
+      <c r="W80" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -6300,11 +6308,11 @@
       <c r="V81">
         <v>1.8</v>
       </c>
-      <c r="W81" t="s">
+      <c r="W81" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -6371,11 +6379,11 @@
       <c r="V82">
         <v>1.36</v>
       </c>
-      <c r="W82">
+      <c r="W82" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -6442,11 +6450,11 @@
       <c r="V83">
         <v>1.82</v>
       </c>
-      <c r="W83">
+      <c r="W83" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -6513,11 +6521,11 @@
       <c r="V84">
         <v>1.79</v>
       </c>
-      <c r="W84">
+      <c r="W84" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -6584,11 +6592,11 @@
       <c r="V85">
         <v>1.93</v>
       </c>
-      <c r="W85">
+      <c r="W85" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -6655,11 +6663,11 @@
       <c r="V86">
         <v>1.67</v>
       </c>
-      <c r="W86">
+      <c r="W86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -6726,11 +6734,11 @@
       <c r="V87">
         <v>2.29</v>
       </c>
-      <c r="W87">
+      <c r="W87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -6797,11 +6805,11 @@
       <c r="V88">
         <v>2.19</v>
       </c>
-      <c r="W88" t="s">
+      <c r="W88" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -6868,11 +6876,11 @@
       <c r="V89">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W89">
+      <c r="W89" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -6939,11 +6947,11 @@
       <c r="V90">
         <v>2.48</v>
       </c>
-      <c r="W90">
+      <c r="W90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -7010,11 +7018,11 @@
       <c r="V91">
         <v>2.7</v>
       </c>
-      <c r="W91">
+      <c r="W91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -7081,11 +7089,11 @@
       <c r="V92">
         <v>1.82</v>
       </c>
-      <c r="W92">
+      <c r="W92" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -7152,11 +7160,11 @@
       <c r="V93">
         <v>2.56</v>
       </c>
-      <c r="W93">
+      <c r="W93" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -7223,11 +7231,11 @@
       <c r="V94">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W94">
+      <c r="W94" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -7294,11 +7302,11 @@
       <c r="V95">
         <v>2.93</v>
       </c>
-      <c r="W95" t="s">
+      <c r="W95" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -7365,11 +7373,11 @@
       <c r="V96">
         <v>2.78</v>
       </c>
-      <c r="W96">
+      <c r="W96" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -7436,11 +7444,11 @@
       <c r="V97">
         <v>1.44</v>
       </c>
-      <c r="W97">
+      <c r="W97" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -7507,11 +7515,11 @@
       <c r="V98">
         <v>1.88</v>
       </c>
-      <c r="W98">
+      <c r="W98" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -7578,11 +7586,11 @@
       <c r="V99">
         <v>1.66</v>
       </c>
-      <c r="W99">
+      <c r="W99" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -7649,11 +7657,11 @@
       <c r="V100">
         <v>1.8</v>
       </c>
-      <c r="W100" t="s">
+      <c r="W100" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -7720,11 +7728,11 @@
       <c r="V101">
         <v>1.83</v>
       </c>
-      <c r="W101">
+      <c r="W101" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -7791,11 +7799,11 @@
       <c r="V102">
         <v>1.82</v>
       </c>
-      <c r="W102">
+      <c r="W102" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -7862,11 +7870,11 @@
       <c r="V103">
         <v>1.79</v>
       </c>
-      <c r="W103">
+      <c r="W103" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -7933,11 +7941,11 @@
       <c r="V104">
         <v>1.93</v>
       </c>
-      <c r="W104">
+      <c r="W104" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -8004,11 +8012,11 @@
       <c r="V105">
         <v>1.67</v>
       </c>
-      <c r="W105" t="s">
+      <c r="W105" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -8075,11 +8083,11 @@
       <c r="V106">
         <v>2.29</v>
       </c>
-      <c r="W106">
+      <c r="W106" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -8146,11 +8154,11 @@
       <c r="V107">
         <v>2.19</v>
       </c>
-      <c r="W107">
+      <c r="W107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>27</v>
       </c>
@@ -8217,11 +8225,11 @@
       <c r="V108">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W108">
+      <c r="W108" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -8288,11 +8296,11 @@
       <c r="V109">
         <v>2.48</v>
       </c>
-      <c r="W109">
+      <c r="W109" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -8359,11 +8367,11 @@
       <c r="V110">
         <v>2.7</v>
       </c>
-      <c r="W110" t="s">
+      <c r="W110" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -8430,11 +8438,11 @@
       <c r="V111">
         <v>1.82</v>
       </c>
-      <c r="W111">
+      <c r="W111" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -8501,11 +8509,11 @@
       <c r="V112">
         <v>2.56</v>
       </c>
-      <c r="W112">
+      <c r="W112" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -8572,11 +8580,11 @@
       <c r="V113">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W113">
+      <c r="W113" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -8643,11 +8651,11 @@
       <c r="V114">
         <v>2.93</v>
       </c>
-      <c r="W114">
+      <c r="W114" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -8714,11 +8722,11 @@
       <c r="V115">
         <v>2.78</v>
       </c>
-      <c r="W115">
+      <c r="W115" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -8785,11 +8793,11 @@
       <c r="V116">
         <v>1.44</v>
       </c>
-      <c r="W116">
+      <c r="W116" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -8856,11 +8864,11 @@
       <c r="V117">
         <v>1.88</v>
       </c>
-      <c r="W117">
+      <c r="W117" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>28</v>
       </c>
@@ -8927,11 +8935,11 @@
       <c r="V118">
         <v>1.66</v>
       </c>
-      <c r="W118">
+      <c r="W118" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -8998,11 +9006,11 @@
       <c r="V119">
         <v>1.8</v>
       </c>
-      <c r="W119">
+      <c r="W119" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -9069,11 +9077,11 @@
       <c r="V120">
         <v>1.83</v>
       </c>
-      <c r="W120" t="s">
+      <c r="W120" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -9140,11 +9148,11 @@
       <c r="V121">
         <v>1.36</v>
       </c>
-      <c r="W121" t="s">
+      <c r="W121" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -9211,11 +9219,11 @@
       <c r="V122">
         <v>1.79</v>
       </c>
-      <c r="W122">
+      <c r="W122" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -9282,11 +9290,11 @@
       <c r="V123">
         <v>1.93</v>
       </c>
-      <c r="W123">
+      <c r="W123" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -9353,11 +9361,11 @@
       <c r="V124">
         <v>1.67</v>
       </c>
-      <c r="W124">
+      <c r="W124" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -9424,11 +9432,11 @@
       <c r="V125">
         <v>2.29</v>
       </c>
-      <c r="W125">
+      <c r="W125" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -9495,11 +9503,11 @@
       <c r="V126">
         <v>2.19</v>
       </c>
-      <c r="W126">
+      <c r="W126" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -9566,11 +9574,11 @@
       <c r="V127">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W127">
+      <c r="W127" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -9637,11 +9645,11 @@
       <c r="V128">
         <v>2.48</v>
       </c>
-      <c r="W128">
+      <c r="W128" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>28</v>
       </c>
@@ -9708,11 +9716,11 @@
       <c r="V129">
         <v>2.7</v>
       </c>
-      <c r="W129" t="s">
+      <c r="W129" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>28</v>
       </c>
@@ -9779,11 +9787,11 @@
       <c r="V130">
         <v>1.82</v>
       </c>
-      <c r="W130">
+      <c r="W130" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -9850,11 +9858,11 @@
       <c r="V131">
         <v>2.56</v>
       </c>
-      <c r="W131">
+      <c r="W131" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>28</v>
       </c>
@@ -9921,11 +9929,11 @@
       <c r="V132">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W132">
+      <c r="W132" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>28</v>
       </c>
@@ -9992,11 +10000,11 @@
       <c r="V133">
         <v>2.93</v>
       </c>
-      <c r="W133">
+      <c r="W133" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -10063,11 +10071,11 @@
       <c r="V134">
         <v>2.78</v>
       </c>
-      <c r="W134">
+      <c r="W134" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -10134,11 +10142,11 @@
       <c r="V135">
         <v>1.44</v>
       </c>
-      <c r="W135" t="s">
+      <c r="W135" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -10205,11 +10213,11 @@
       <c r="V136">
         <v>1.88</v>
       </c>
-      <c r="W136">
+      <c r="W136" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -10276,11 +10284,11 @@
       <c r="V137">
         <v>1.66</v>
       </c>
-      <c r="W137">
+      <c r="W137" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -10347,11 +10355,11 @@
       <c r="V138">
         <v>1.8</v>
       </c>
-      <c r="W138">
+      <c r="W138" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -10418,11 +10426,11 @@
       <c r="V139">
         <v>1.83</v>
       </c>
-      <c r="W139" t="s">
+      <c r="W139" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -10489,11 +10497,11 @@
       <c r="V140">
         <v>1.36</v>
       </c>
-      <c r="W140">
+      <c r="W140" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -10560,11 +10568,11 @@
       <c r="V141">
         <v>1.82</v>
       </c>
-      <c r="W141" t="s">
+      <c r="W141" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -10631,11 +10639,11 @@
       <c r="V142">
         <v>1.93</v>
       </c>
-      <c r="W142">
+      <c r="W142" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>29</v>
       </c>
@@ -10702,11 +10710,11 @@
       <c r="V143">
         <v>1.67</v>
       </c>
-      <c r="W143">
+      <c r="W143" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>29</v>
       </c>
@@ -10773,11 +10781,11 @@
       <c r="V144">
         <v>2.29</v>
       </c>
-      <c r="W144" t="s">
+      <c r="W144" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -10844,11 +10852,11 @@
       <c r="V145">
         <v>2.19</v>
       </c>
-      <c r="W145">
+      <c r="W145" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>29</v>
       </c>
@@ -10915,11 +10923,11 @@
       <c r="V146">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W146">
+      <c r="W146" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>29</v>
       </c>
@@ -10986,11 +10994,11 @@
       <c r="V147">
         <v>2.48</v>
       </c>
-      <c r="W147" t="s">
+      <c r="W147" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>29</v>
       </c>
@@ -11057,11 +11065,11 @@
       <c r="V148">
         <v>2.7</v>
       </c>
-      <c r="W148">
+      <c r="W148" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>29</v>
       </c>
@@ -11128,11 +11136,11 @@
       <c r="V149">
         <v>1.82</v>
       </c>
-      <c r="W149">
+      <c r="W149" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>29</v>
       </c>
@@ -11199,11 +11207,11 @@
       <c r="V150">
         <v>2.56</v>
       </c>
-      <c r="W150" t="s">
+      <c r="W150" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>29</v>
       </c>
@@ -11270,11 +11278,11 @@
       <c r="V151">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W151">
+      <c r="W151" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>29</v>
       </c>
@@ -11341,11 +11349,11 @@
       <c r="V152">
         <v>2.93</v>
       </c>
-      <c r="W152">
+      <c r="W152" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>29</v>
       </c>
@@ -11412,11 +11420,11 @@
       <c r="V153">
         <v>2.78</v>
       </c>
-      <c r="W153">
+      <c r="W153" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -11483,11 +11491,11 @@
       <c r="V154">
         <v>1.44</v>
       </c>
-      <c r="W154" t="s">
+      <c r="W154" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -11554,11 +11562,11 @@
       <c r="V155">
         <v>1.88</v>
       </c>
-      <c r="W155" t="s">
+      <c r="W155" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -11625,11 +11633,11 @@
       <c r="V156">
         <v>1.66</v>
       </c>
-      <c r="W156">
+      <c r="W156" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -11696,11 +11704,11 @@
       <c r="V157">
         <v>1.8</v>
       </c>
-      <c r="W157" t="s">
+      <c r="W157" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -11767,11 +11775,11 @@
       <c r="V158">
         <v>1.83</v>
       </c>
-      <c r="W158">
+      <c r="W158" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -11838,11 +11846,11 @@
       <c r="V159">
         <v>1.36</v>
       </c>
-      <c r="W159" t="s">
+      <c r="W159" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>30</v>
       </c>
@@ -11909,11 +11917,11 @@
       <c r="V160">
         <v>1.82</v>
       </c>
-      <c r="W160" t="s">
+      <c r="W160" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>30</v>
       </c>
@@ -11980,11 +11988,11 @@
       <c r="V161">
         <v>1.79</v>
       </c>
-      <c r="W161">
+      <c r="W161" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -12051,11 +12059,11 @@
       <c r="V162">
         <v>1.67</v>
       </c>
-      <c r="W162">
+      <c r="W162" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -12122,11 +12130,11 @@
       <c r="V163">
         <v>2.29</v>
       </c>
-      <c r="W163">
+      <c r="W163" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>30</v>
       </c>
@@ -12193,11 +12201,11 @@
       <c r="V164">
         <v>2.19</v>
       </c>
-      <c r="W164">
+      <c r="W164" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>30</v>
       </c>
@@ -12264,11 +12272,11 @@
       <c r="V165">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W165">
+      <c r="W165" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>30</v>
       </c>
@@ -12335,11 +12343,11 @@
       <c r="V166">
         <v>2.48</v>
       </c>
-      <c r="W166">
+      <c r="W166" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>30</v>
       </c>
@@ -12406,11 +12414,11 @@
       <c r="V167">
         <v>2.7</v>
       </c>
-      <c r="W167" t="s">
+      <c r="W167" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>30</v>
       </c>
@@ -12477,11 +12485,11 @@
       <c r="V168">
         <v>1.82</v>
       </c>
-      <c r="W168">
+      <c r="W168" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>30</v>
       </c>
@@ -12548,11 +12556,11 @@
       <c r="V169">
         <v>2.56</v>
       </c>
-      <c r="W169">
+      <c r="W169" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -12619,11 +12627,11 @@
       <c r="V170">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W170" t="s">
+      <c r="W170" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -12690,11 +12698,11 @@
       <c r="V171">
         <v>2.93</v>
       </c>
-      <c r="W171" t="s">
+      <c r="W171" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>30</v>
       </c>
@@ -12761,11 +12769,11 @@
       <c r="V172">
         <v>2.78</v>
       </c>
-      <c r="W172" t="s">
+      <c r="W172" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>31</v>
       </c>
@@ -12832,11 +12840,11 @@
       <c r="V173">
         <v>1.44</v>
       </c>
-      <c r="W173">
+      <c r="W173" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>31</v>
       </c>
@@ -12903,11 +12911,11 @@
       <c r="V174">
         <v>1.88</v>
       </c>
-      <c r="W174" t="s">
+      <c r="W174" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>31</v>
       </c>
@@ -12974,11 +12982,11 @@
       <c r="V175">
         <v>1.66</v>
       </c>
-      <c r="W175">
+      <c r="W175" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -13045,11 +13053,11 @@
       <c r="V176">
         <v>1.8</v>
       </c>
-      <c r="W176">
+      <c r="W176" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>31</v>
       </c>
@@ -13116,11 +13124,11 @@
       <c r="V177">
         <v>1.83</v>
       </c>
-      <c r="W177">
+      <c r="W177" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -13187,11 +13195,11 @@
       <c r="V178">
         <v>1.36</v>
       </c>
-      <c r="W178">
+      <c r="W178" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>31</v>
       </c>
@@ -13258,11 +13266,11 @@
       <c r="V179">
         <v>1.82</v>
       </c>
-      <c r="W179">
+      <c r="W179" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -13329,11 +13337,11 @@
       <c r="V180">
         <v>1.79</v>
       </c>
-      <c r="W180" t="s">
+      <c r="W180" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -13400,11 +13408,11 @@
       <c r="V181">
         <v>1.93</v>
       </c>
-      <c r="W181">
+      <c r="W181" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>31</v>
       </c>
@@ -13471,11 +13479,11 @@
       <c r="V182">
         <v>2.29</v>
       </c>
-      <c r="W182" t="s">
+      <c r="W182" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>31</v>
       </c>
@@ -13542,11 +13550,11 @@
       <c r="V183">
         <v>2.19</v>
       </c>
-      <c r="W183">
+      <c r="W183" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -13613,11 +13621,11 @@
       <c r="V184">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W184">
+      <c r="W184" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>31</v>
       </c>
@@ -13684,11 +13692,11 @@
       <c r="V185">
         <v>2.48</v>
       </c>
-      <c r="W185" t="s">
+      <c r="W185" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>31</v>
       </c>
@@ -13755,11 +13763,11 @@
       <c r="V186">
         <v>2.7</v>
       </c>
-      <c r="W186" t="s">
+      <c r="W186" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>31</v>
       </c>
@@ -13826,11 +13834,11 @@
       <c r="V187">
         <v>1.82</v>
       </c>
-      <c r="W187">
+      <c r="W187" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>31</v>
       </c>
@@ -13897,11 +13905,11 @@
       <c r="V188">
         <v>2.56</v>
       </c>
-      <c r="W188">
+      <c r="W188" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>31</v>
       </c>
@@ -13968,11 +13976,11 @@
       <c r="V189">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W189" t="s">
+      <c r="W189" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>31</v>
       </c>
@@ -14039,11 +14047,11 @@
       <c r="V190">
         <v>2.93</v>
       </c>
-      <c r="W190" t="s">
+      <c r="W190" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>31</v>
       </c>
@@ -14110,11 +14118,11 @@
       <c r="V191">
         <v>2.78</v>
       </c>
-      <c r="W191">
+      <c r="W191" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -14181,11 +14189,11 @@
       <c r="V192">
         <v>1.44</v>
       </c>
-      <c r="W192">
+      <c r="W192" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>32</v>
       </c>
@@ -14252,11 +14260,11 @@
       <c r="V193">
         <v>1.88</v>
       </c>
-      <c r="W193">
+      <c r="W193" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>32</v>
       </c>
@@ -14323,11 +14331,11 @@
       <c r="V194">
         <v>1.66</v>
       </c>
-      <c r="W194" t="s">
+      <c r="W194" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -14394,11 +14402,11 @@
       <c r="V195">
         <v>1.8</v>
       </c>
-      <c r="W195">
+      <c r="W195" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>32</v>
       </c>
@@ -14465,11 +14473,11 @@
       <c r="V196">
         <v>1.83</v>
       </c>
-      <c r="W196">
+      <c r="W196" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>32</v>
       </c>
@@ -14536,11 +14544,11 @@
       <c r="V197">
         <v>1.36</v>
       </c>
-      <c r="W197" t="s">
+      <c r="W197" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -14607,11 +14615,11 @@
       <c r="V198">
         <v>1.82</v>
       </c>
-      <c r="W198">
+      <c r="W198" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>32</v>
       </c>
@@ -14678,11 +14686,11 @@
       <c r="V199">
         <v>1.79</v>
       </c>
-      <c r="W199">
+      <c r="W199" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>32</v>
       </c>
@@ -14749,11 +14757,11 @@
       <c r="V200">
         <v>1.93</v>
       </c>
-      <c r="W200">
+      <c r="W200" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>32</v>
       </c>
@@ -14820,11 +14828,11 @@
       <c r="V201">
         <v>1.67</v>
       </c>
-      <c r="W201">
+      <c r="W201" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>32</v>
       </c>
@@ -14891,11 +14899,11 @@
       <c r="V202">
         <v>2.19</v>
       </c>
-      <c r="W202">
+      <c r="W202" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>32</v>
       </c>
@@ -14962,11 +14970,11 @@
       <c r="V203">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W203" t="s">
+      <c r="W203" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>32</v>
       </c>
@@ -15033,11 +15041,11 @@
       <c r="V204">
         <v>2.48</v>
       </c>
-      <c r="W204">
+      <c r="W204" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -15104,11 +15112,11 @@
       <c r="V205">
         <v>2.7</v>
       </c>
-      <c r="W205">
+      <c r="W205" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>32</v>
       </c>
@@ -15175,11 +15183,11 @@
       <c r="V206">
         <v>1.82</v>
       </c>
-      <c r="W206">
+      <c r="W206" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>32</v>
       </c>
@@ -15246,11 +15254,11 @@
       <c r="V207">
         <v>2.56</v>
       </c>
-      <c r="W207">
+      <c r="W207" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -15317,11 +15325,11 @@
       <c r="V208">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W208">
+      <c r="W208" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -15388,11 +15396,11 @@
       <c r="V209">
         <v>2.93</v>
       </c>
-      <c r="W209" t="s">
+      <c r="W209" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>32</v>
       </c>
@@ -15459,11 +15467,11 @@
       <c r="V210">
         <v>2.78</v>
       </c>
-      <c r="W210" t="s">
+      <c r="W210" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>33</v>
       </c>
@@ -15530,11 +15538,11 @@
       <c r="V211">
         <v>1.44</v>
       </c>
-      <c r="W211" t="s">
+      <c r="W211" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>33</v>
       </c>
@@ -15601,11 +15609,11 @@
       <c r="V212">
         <v>1.88</v>
       </c>
-      <c r="W212">
+      <c r="W212" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -15672,11 +15680,11 @@
       <c r="V213">
         <v>1.66</v>
       </c>
-      <c r="W213">
+      <c r="W213" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>33</v>
       </c>
@@ -15743,11 +15751,11 @@
       <c r="V214">
         <v>1.8</v>
       </c>
-      <c r="W214">
+      <c r="W214" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -15814,11 +15822,11 @@
       <c r="V215">
         <v>1.83</v>
       </c>
-      <c r="W215" t="s">
+      <c r="W215" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -15885,11 +15893,11 @@
       <c r="V216">
         <v>1.36</v>
       </c>
-      <c r="W216">
+      <c r="W216" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>33</v>
       </c>
@@ -15956,11 +15964,11 @@
       <c r="V217">
         <v>1.82</v>
       </c>
-      <c r="W217">
+      <c r="W217" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>33</v>
       </c>
@@ -16027,11 +16035,11 @@
       <c r="V218">
         <v>1.79</v>
       </c>
-      <c r="W218">
+      <c r="W218" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>33</v>
       </c>
@@ -16098,11 +16106,11 @@
       <c r="V219">
         <v>1.93</v>
       </c>
-      <c r="W219">
+      <c r="W219" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>33</v>
       </c>
@@ -16169,11 +16177,11 @@
       <c r="V220">
         <v>1.67</v>
       </c>
-      <c r="W220">
+      <c r="W220" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>33</v>
       </c>
@@ -16240,11 +16248,11 @@
       <c r="V221">
         <v>2.29</v>
       </c>
-      <c r="W221" t="s">
+      <c r="W221" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>33</v>
       </c>
@@ -16311,11 +16319,11 @@
       <c r="V222">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W222" t="s">
+      <c r="W222" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>33</v>
       </c>
@@ -16382,11 +16390,11 @@
       <c r="V223">
         <v>2.48</v>
       </c>
-      <c r="W223" t="s">
+      <c r="W223" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>33</v>
       </c>
@@ -16453,11 +16461,11 @@
       <c r="V224">
         <v>2.7</v>
       </c>
-      <c r="W224" t="s">
+      <c r="W224" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>33</v>
       </c>
@@ -16524,11 +16532,11 @@
       <c r="V225">
         <v>1.82</v>
       </c>
-      <c r="W225" t="s">
+      <c r="W225" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>33</v>
       </c>
@@ -16595,11 +16603,11 @@
       <c r="V226">
         <v>2.56</v>
       </c>
-      <c r="W226" t="s">
+      <c r="W226" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>33</v>
       </c>
@@ -16666,11 +16674,11 @@
       <c r="V227">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W227" t="s">
+      <c r="W227" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -16737,11 +16745,11 @@
       <c r="V228">
         <v>2.93</v>
       </c>
-      <c r="W228">
+      <c r="W228" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>33</v>
       </c>
@@ -16808,11 +16816,11 @@
       <c r="V229">
         <v>2.78</v>
       </c>
-      <c r="W229">
+      <c r="W229" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>34</v>
       </c>
@@ -16879,11 +16887,11 @@
       <c r="V230">
         <v>1.44</v>
       </c>
-      <c r="W230">
+      <c r="W230" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>34</v>
       </c>
@@ -16950,11 +16958,11 @@
       <c r="V231">
         <v>1.88</v>
       </c>
-      <c r="W231">
+      <c r="W231" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>34</v>
       </c>
@@ -17021,11 +17029,11 @@
       <c r="V232">
         <v>1.66</v>
       </c>
-      <c r="W232">
+      <c r="W232" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>34</v>
       </c>
@@ -17092,11 +17100,11 @@
       <c r="V233">
         <v>1.8</v>
       </c>
-      <c r="W233" t="s">
+      <c r="W233" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -17163,11 +17171,11 @@
       <c r="V234">
         <v>1.83</v>
       </c>
-      <c r="W234">
+      <c r="W234" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>34</v>
       </c>
@@ -17234,11 +17242,11 @@
       <c r="V235">
         <v>1.36</v>
       </c>
-      <c r="W235" t="s">
+      <c r="W235" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>34</v>
       </c>
@@ -17305,11 +17313,11 @@
       <c r="V236">
         <v>1.82</v>
       </c>
-      <c r="W236">
+      <c r="W236" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>34</v>
       </c>
@@ -17376,11 +17384,11 @@
       <c r="V237">
         <v>1.79</v>
       </c>
-      <c r="W237">
+      <c r="W237" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>34</v>
       </c>
@@ -17447,11 +17455,11 @@
       <c r="V238">
         <v>1.93</v>
       </c>
-      <c r="W238" t="s">
+      <c r="W238" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>34</v>
       </c>
@@ -17518,11 +17526,11 @@
       <c r="V239">
         <v>1.67</v>
       </c>
-      <c r="W239" t="s">
+      <c r="W239" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>34</v>
       </c>
@@ -17589,11 +17597,11 @@
       <c r="V240">
         <v>2.29</v>
       </c>
-      <c r="W240">
+      <c r="W240" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>34</v>
       </c>
@@ -17660,11 +17668,11 @@
       <c r="V241">
         <v>2.19</v>
       </c>
-      <c r="W241">
+      <c r="W241" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -17731,11 +17739,11 @@
       <c r="V242">
         <v>2.48</v>
       </c>
-      <c r="W242">
+      <c r="W242" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>34</v>
       </c>
@@ -17802,11 +17810,11 @@
       <c r="V243">
         <v>2.7</v>
       </c>
-      <c r="W243">
+      <c r="W243" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>34</v>
       </c>
@@ -17873,11 +17881,11 @@
       <c r="V244">
         <v>1.82</v>
       </c>
-      <c r="W244">
+      <c r="W244" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>34</v>
       </c>
@@ -17944,11 +17952,11 @@
       <c r="V245">
         <v>2.56</v>
       </c>
-      <c r="W245">
+      <c r="W245" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>34</v>
       </c>
@@ -18015,11 +18023,11 @@
       <c r="V246">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W246">
+      <c r="W246" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>34</v>
       </c>
@@ -18086,11 +18094,11 @@
       <c r="V247">
         <v>2.93</v>
       </c>
-      <c r="W247">
+      <c r="W247" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>34</v>
       </c>
@@ -18157,11 +18165,11 @@
       <c r="V248">
         <v>2.78</v>
       </c>
-      <c r="W248">
+      <c r="W248" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>35</v>
       </c>
@@ -18228,11 +18236,11 @@
       <c r="V249">
         <v>1.44</v>
       </c>
-      <c r="W249">
+      <c r="W249" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>35</v>
       </c>
@@ -18299,11 +18307,11 @@
       <c r="V250">
         <v>1.88</v>
       </c>
-      <c r="W250">
+      <c r="W250" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -18370,11 +18378,11 @@
       <c r="V251">
         <v>1.66</v>
       </c>
-      <c r="W251">
+      <c r="W251" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>35</v>
       </c>
@@ -18441,11 +18449,11 @@
       <c r="V252">
         <v>1.8</v>
       </c>
-      <c r="W252">
+      <c r="W252" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>35</v>
       </c>
@@ -18512,11 +18520,11 @@
       <c r="V253">
         <v>1.83</v>
       </c>
-      <c r="W253">
+      <c r="W253" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>35</v>
       </c>
@@ -18583,11 +18591,11 @@
       <c r="V254">
         <v>1.36</v>
       </c>
-      <c r="W254">
+      <c r="W254" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>35</v>
       </c>
@@ -18654,11 +18662,11 @@
       <c r="V255">
         <v>1.82</v>
       </c>
-      <c r="W255">
+      <c r="W255" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>35</v>
       </c>
@@ -18725,11 +18733,11 @@
       <c r="V256">
         <v>1.79</v>
       </c>
-      <c r="W256" t="s">
+      <c r="W256" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>35</v>
       </c>
@@ -18796,11 +18804,11 @@
       <c r="V257">
         <v>1.93</v>
       </c>
-      <c r="W257">
+      <c r="W257" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>35</v>
       </c>
@@ -18867,11 +18875,11 @@
       <c r="V258">
         <v>1.67</v>
       </c>
-      <c r="W258" t="s">
+      <c r="W258" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>35</v>
       </c>
@@ -18938,11 +18946,11 @@
       <c r="V259">
         <v>2.29</v>
       </c>
-      <c r="W259">
+      <c r="W259" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>35</v>
       </c>
@@ -19009,11 +19017,11 @@
       <c r="V260">
         <v>2.19</v>
       </c>
-      <c r="W260">
+      <c r="W260" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>35</v>
       </c>
@@ -19080,11 +19088,11 @@
       <c r="V261">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W261">
+      <c r="W261" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>35</v>
       </c>
@@ -19151,11 +19159,11 @@
       <c r="V262">
         <v>2.7</v>
       </c>
-      <c r="W262">
+      <c r="W262" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>35</v>
       </c>
@@ -19222,11 +19230,11 @@
       <c r="V263">
         <v>1.82</v>
       </c>
-      <c r="W263">
+      <c r="W263" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>35</v>
       </c>
@@ -19293,11 +19301,11 @@
       <c r="V264">
         <v>2.56</v>
       </c>
-      <c r="W264" t="s">
+      <c r="W264" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>35</v>
       </c>
@@ -19364,11 +19372,11 @@
       <c r="V265">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W265" t="s">
+      <c r="W265" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>35</v>
       </c>
@@ -19435,11 +19443,11 @@
       <c r="V266">
         <v>2.93</v>
       </c>
-      <c r="W266">
+      <c r="W266" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>35</v>
       </c>
@@ -19506,11 +19514,11 @@
       <c r="V267">
         <v>2.78</v>
       </c>
-      <c r="W267">
+      <c r="W267" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>36</v>
       </c>
@@ -19577,11 +19585,11 @@
       <c r="V268">
         <v>1.44</v>
       </c>
-      <c r="W268">
+      <c r="W268" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>36</v>
       </c>
@@ -19648,11 +19656,11 @@
       <c r="V269">
         <v>1.88</v>
       </c>
-      <c r="W269">
+      <c r="W269" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>36</v>
       </c>
@@ -19719,11 +19727,11 @@
       <c r="V270">
         <v>1.66</v>
       </c>
-      <c r="W270" t="s">
+      <c r="W270" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>36</v>
       </c>
@@ -19790,11 +19798,11 @@
       <c r="V271">
         <v>1.8</v>
       </c>
-      <c r="W271">
+      <c r="W271" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>36</v>
       </c>
@@ -19861,11 +19869,11 @@
       <c r="V272">
         <v>1.83</v>
       </c>
-      <c r="W272">
+      <c r="W272" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>36</v>
       </c>
@@ -19932,11 +19940,11 @@
       <c r="V273">
         <v>1.36</v>
       </c>
-      <c r="W273">
+      <c r="W273" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>36</v>
       </c>
@@ -20003,11 +20011,11 @@
       <c r="V274">
         <v>1.82</v>
       </c>
-      <c r="W274">
+      <c r="W274" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>36</v>
       </c>
@@ -20074,11 +20082,11 @@
       <c r="V275">
         <v>1.79</v>
       </c>
-      <c r="W275" t="s">
+      <c r="W275" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>36</v>
       </c>
@@ -20145,11 +20153,11 @@
       <c r="V276">
         <v>1.93</v>
       </c>
-      <c r="W276" t="s">
+      <c r="W276" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>36</v>
       </c>
@@ -20216,11 +20224,11 @@
       <c r="V277">
         <v>1.67</v>
       </c>
-      <c r="W277" t="s">
+      <c r="W277" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>36</v>
       </c>
@@ -20287,11 +20295,11 @@
       <c r="V278">
         <v>2.29</v>
       </c>
-      <c r="W278">
+      <c r="W278" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>36</v>
       </c>
@@ -20358,11 +20366,11 @@
       <c r="V279">
         <v>2.19</v>
       </c>
-      <c r="W279">
+      <c r="W279" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>36</v>
       </c>
@@ -20429,11 +20437,11 @@
       <c r="V280">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W280">
+      <c r="W280" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>36</v>
       </c>
@@ -20500,11 +20508,11 @@
       <c r="V281">
         <v>2.48</v>
       </c>
-      <c r="W281" t="s">
+      <c r="W281" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>36</v>
       </c>
@@ -20571,11 +20579,11 @@
       <c r="V282">
         <v>1.82</v>
       </c>
-      <c r="W282">
+      <c r="W282" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>36</v>
       </c>
@@ -20642,11 +20650,11 @@
       <c r="V283">
         <v>2.56</v>
       </c>
-      <c r="W283">
+      <c r="W283" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>36</v>
       </c>
@@ -20713,11 +20721,11 @@
       <c r="V284">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W284">
+      <c r="W284" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>36</v>
       </c>
@@ -20784,11 +20792,11 @@
       <c r="V285">
         <v>2.93</v>
       </c>
-      <c r="W285" t="s">
+      <c r="W285" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>36</v>
       </c>
@@ -20855,11 +20863,11 @@
       <c r="V286">
         <v>2.78</v>
       </c>
-      <c r="W286">
+      <c r="W286" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>37</v>
       </c>
@@ -20926,11 +20934,11 @@
       <c r="V287">
         <v>1.44</v>
       </c>
-      <c r="W287">
+      <c r="W287" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>37</v>
       </c>
@@ -20997,11 +21005,11 @@
       <c r="V288">
         <v>1.88</v>
       </c>
-      <c r="W288">
+      <c r="W288" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>37</v>
       </c>
@@ -21068,11 +21076,11 @@
       <c r="V289">
         <v>1.66</v>
       </c>
-      <c r="W289">
+      <c r="W289" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>37</v>
       </c>
@@ -21139,11 +21147,11 @@
       <c r="V290">
         <v>1.8</v>
       </c>
-      <c r="W290" t="s">
+      <c r="W290" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>37</v>
       </c>
@@ -21210,11 +21218,11 @@
       <c r="V291">
         <v>1.83</v>
       </c>
-      <c r="W291">
+      <c r="W291" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>37</v>
       </c>
@@ -21281,11 +21289,11 @@
       <c r="V292">
         <v>1.36</v>
       </c>
-      <c r="W292" t="s">
+      <c r="W292" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>37</v>
       </c>
@@ -21352,11 +21360,11 @@
       <c r="V293">
         <v>1.82</v>
       </c>
-      <c r="W293">
+      <c r="W293" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>37</v>
       </c>
@@ -21423,11 +21431,11 @@
       <c r="V294">
         <v>1.79</v>
       </c>
-      <c r="W294" t="s">
+      <c r="W294" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>37</v>
       </c>
@@ -21494,11 +21502,11 @@
       <c r="V295">
         <v>1.93</v>
       </c>
-      <c r="W295">
+      <c r="W295" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>37</v>
       </c>
@@ -21565,11 +21573,11 @@
       <c r="V296">
         <v>1.67</v>
       </c>
-      <c r="W296">
+      <c r="W296" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>37</v>
       </c>
@@ -21636,11 +21644,11 @@
       <c r="V297">
         <v>2.29</v>
       </c>
-      <c r="W297">
+      <c r="W297" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>37</v>
       </c>
@@ -21707,11 +21715,11 @@
       <c r="V298">
         <v>2.19</v>
       </c>
-      <c r="W298">
+      <c r="W298" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>37</v>
       </c>
@@ -21778,11 +21786,11 @@
       <c r="V299">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W299" t="s">
+      <c r="W299" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>37</v>
       </c>
@@ -21849,11 +21857,11 @@
       <c r="V300">
         <v>2.48</v>
       </c>
-      <c r="W300" t="s">
+      <c r="W300" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>37</v>
       </c>
@@ -21920,11 +21928,11 @@
       <c r="V301">
         <v>2.7</v>
       </c>
-      <c r="W301">
+      <c r="W301" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>37</v>
       </c>
@@ -21991,11 +21999,11 @@
       <c r="V302">
         <v>2.56</v>
       </c>
-      <c r="W302" t="s">
+      <c r="W302" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>37</v>
       </c>
@@ -22062,11 +22070,11 @@
       <c r="V303">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W303">
+      <c r="W303" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>37</v>
       </c>
@@ -22133,11 +22141,11 @@
       <c r="V304">
         <v>2.93</v>
       </c>
-      <c r="W304" t="s">
+      <c r="W304" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>37</v>
       </c>
@@ -22204,11 +22212,11 @@
       <c r="V305">
         <v>2.78</v>
       </c>
-      <c r="W305" t="s">
+      <c r="W305" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -22275,11 +22283,11 @@
       <c r="V306">
         <v>1.44</v>
       </c>
-      <c r="W306">
+      <c r="W306" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>38</v>
       </c>
@@ -22346,11 +22354,11 @@
       <c r="V307">
         <v>1.88</v>
       </c>
-      <c r="W307">
+      <c r="W307" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>38</v>
       </c>
@@ -22417,11 +22425,11 @@
       <c r="V308">
         <v>1.66</v>
       </c>
-      <c r="W308">
+      <c r="W308" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>38</v>
       </c>
@@ -22488,11 +22496,11 @@
       <c r="V309">
         <v>1.8</v>
       </c>
-      <c r="W309">
+      <c r="W309" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>38</v>
       </c>
@@ -22559,11 +22567,11 @@
       <c r="V310">
         <v>1.83</v>
       </c>
-      <c r="W310" t="s">
+      <c r="W310" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>38</v>
       </c>
@@ -22630,11 +22638,11 @@
       <c r="V311">
         <v>1.36</v>
       </c>
-      <c r="W311">
+      <c r="W311" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>38</v>
       </c>
@@ -22701,11 +22709,11 @@
       <c r="V312">
         <v>1.82</v>
       </c>
-      <c r="W312">
+      <c r="W312" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>38</v>
       </c>
@@ -22772,11 +22780,11 @@
       <c r="V313">
         <v>1.79</v>
       </c>
-      <c r="W313">
+      <c r="W313" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>38</v>
       </c>
@@ -22843,11 +22851,11 @@
       <c r="V314">
         <v>1.93</v>
       </c>
-      <c r="W314" t="s">
+      <c r="W314" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>38</v>
       </c>
@@ -22914,11 +22922,11 @@
       <c r="V315">
         <v>1.67</v>
       </c>
-      <c r="W315">
+      <c r="W315" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>38</v>
       </c>
@@ -22985,11 +22993,11 @@
       <c r="V316">
         <v>2.29</v>
       </c>
-      <c r="W316">
+      <c r="W316" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>38</v>
       </c>
@@ -23056,11 +23064,11 @@
       <c r="V317">
         <v>2.19</v>
       </c>
-      <c r="W317" t="s">
+      <c r="W317" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>38</v>
       </c>
@@ -23127,11 +23135,11 @@
       <c r="V318">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W318" t="s">
+      <c r="W318" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>38</v>
       </c>
@@ -23198,11 +23206,11 @@
       <c r="V319">
         <v>2.48</v>
       </c>
-      <c r="W319">
+      <c r="W319" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>38</v>
       </c>
@@ -23269,11 +23277,11 @@
       <c r="V320">
         <v>2.7</v>
       </c>
-      <c r="W320" t="s">
+      <c r="W320" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>38</v>
       </c>
@@ -23340,11 +23348,11 @@
       <c r="V321">
         <v>1.82</v>
       </c>
-      <c r="W321" t="s">
+      <c r="W321" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>38</v>
       </c>
@@ -23411,11 +23419,11 @@
       <c r="V322">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W322" t="s">
+      <c r="W322" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>38</v>
       </c>
@@ -23482,11 +23490,11 @@
       <c r="V323">
         <v>2.93</v>
       </c>
-      <c r="W323" t="s">
+      <c r="W323" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>38</v>
       </c>
@@ -23553,11 +23561,11 @@
       <c r="V324">
         <v>2.78</v>
       </c>
-      <c r="W324">
+      <c r="W324" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>39</v>
       </c>
@@ -23624,11 +23632,11 @@
       <c r="V325">
         <v>1.44</v>
       </c>
-      <c r="W325">
+      <c r="W325" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>39</v>
       </c>
@@ -23695,11 +23703,11 @@
       <c r="V326">
         <v>1.88</v>
       </c>
-      <c r="W326" t="s">
+      <c r="W326" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>39</v>
       </c>
@@ -23766,11 +23774,11 @@
       <c r="V327">
         <v>1.66</v>
       </c>
-      <c r="W327">
+      <c r="W327" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>39</v>
       </c>
@@ -23837,11 +23845,11 @@
       <c r="V328">
         <v>1.8</v>
       </c>
-      <c r="W328">
+      <c r="W328" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>39</v>
       </c>
@@ -23908,11 +23916,11 @@
       <c r="V329">
         <v>1.83</v>
       </c>
-      <c r="W329">
+      <c r="W329" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>39</v>
       </c>
@@ -23979,11 +23987,11 @@
       <c r="V330">
         <v>1.36</v>
       </c>
-      <c r="W330">
+      <c r="W330" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>39</v>
       </c>
@@ -24050,11 +24058,11 @@
       <c r="V331">
         <v>1.82</v>
       </c>
-      <c r="W331">
+      <c r="W331" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>39</v>
       </c>
@@ -24121,11 +24129,11 @@
       <c r="V332">
         <v>1.79</v>
       </c>
-      <c r="W332">
+      <c r="W332" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>39</v>
       </c>
@@ -24192,11 +24200,11 @@
       <c r="V333">
         <v>1.93</v>
       </c>
-      <c r="W333">
+      <c r="W333" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>39</v>
       </c>
@@ -24263,11 +24271,11 @@
       <c r="V334">
         <v>1.67</v>
       </c>
-      <c r="W334">
+      <c r="W334" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>39</v>
       </c>
@@ -24334,11 +24342,11 @@
       <c r="V335">
         <v>2.29</v>
       </c>
-      <c r="W335" t="s">
+      <c r="W335" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>39</v>
       </c>
@@ -24405,11 +24413,11 @@
       <c r="V336">
         <v>2.19</v>
       </c>
-      <c r="W336">
+      <c r="W336" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>39</v>
       </c>
@@ -24476,11 +24484,11 @@
       <c r="V337">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W337">
+      <c r="W337" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -24547,11 +24555,11 @@
       <c r="V338">
         <v>2.48</v>
       </c>
-      <c r="W338" t="s">
+      <c r="W338" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>39</v>
       </c>
@@ -24618,11 +24626,11 @@
       <c r="V339">
         <v>2.7</v>
       </c>
-      <c r="W339">
+      <c r="W339" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>39</v>
       </c>
@@ -24689,11 +24697,11 @@
       <c r="V340">
         <v>1.82</v>
       </c>
-      <c r="W340">
+      <c r="W340" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>39</v>
       </c>
@@ -24760,11 +24768,11 @@
       <c r="V341">
         <v>2.56</v>
       </c>
-      <c r="W341">
+      <c r="W341" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>39</v>
       </c>
@@ -24831,11 +24839,11 @@
       <c r="V342">
         <v>2.93</v>
       </c>
-      <c r="W342">
+      <c r="W342" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>39</v>
       </c>
@@ -24902,11 +24910,11 @@
       <c r="V343">
         <v>2.78</v>
       </c>
-      <c r="W343">
+      <c r="W343" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>40</v>
       </c>
@@ -24973,11 +24981,11 @@
       <c r="V344">
         <v>1.44</v>
       </c>
-      <c r="W344">
+      <c r="W344" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>40</v>
       </c>
@@ -25044,11 +25052,11 @@
       <c r="V345">
         <v>1.88</v>
       </c>
-      <c r="W345">
+      <c r="W345" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>40</v>
       </c>
@@ -25115,11 +25123,11 @@
       <c r="V346">
         <v>1.66</v>
       </c>
-      <c r="W346">
+      <c r="W346" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>40</v>
       </c>
@@ -25186,11 +25194,11 @@
       <c r="V347">
         <v>1.8</v>
       </c>
-      <c r="W347" t="s">
+      <c r="W347" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>40</v>
       </c>
@@ -25257,11 +25265,11 @@
       <c r="V348">
         <v>1.83</v>
       </c>
-      <c r="W348">
+      <c r="W348" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>40</v>
       </c>
@@ -25328,11 +25336,11 @@
       <c r="V349">
         <v>1.36</v>
       </c>
-      <c r="W349">
+      <c r="W349" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -25399,11 +25407,11 @@
       <c r="V350">
         <v>1.82</v>
       </c>
-      <c r="W350">
+      <c r="W350" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>40</v>
       </c>
@@ -25470,11 +25478,11 @@
       <c r="V351">
         <v>1.79</v>
       </c>
-      <c r="W351">
+      <c r="W351" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>40</v>
       </c>
@@ -25541,11 +25549,11 @@
       <c r="V352">
         <v>1.93</v>
       </c>
-      <c r="W352">
+      <c r="W352" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>40</v>
       </c>
@@ -25612,11 +25620,11 @@
       <c r="V353">
         <v>1.67</v>
       </c>
-      <c r="W353">
+      <c r="W353" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>40</v>
       </c>
@@ -25683,11 +25691,11 @@
       <c r="V354">
         <v>2.29</v>
       </c>
-      <c r="W354">
+      <c r="W354" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>40</v>
       </c>
@@ -25754,11 +25762,11 @@
       <c r="V355">
         <v>2.19</v>
       </c>
-      <c r="W355" t="s">
+      <c r="W355" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>40</v>
       </c>
@@ -25825,11 +25833,11 @@
       <c r="V356">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W356" t="s">
+      <c r="W356" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>40</v>
       </c>
@@ -25896,11 +25904,11 @@
       <c r="V357">
         <v>2.48</v>
       </c>
-      <c r="W357">
+      <c r="W357" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>40</v>
       </c>
@@ -25967,11 +25975,11 @@
       <c r="V358">
         <v>2.7</v>
       </c>
-      <c r="W358">
+      <c r="W358" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>40</v>
       </c>
@@ -26038,11 +26046,11 @@
       <c r="V359">
         <v>1.82</v>
       </c>
-      <c r="W359">
+      <c r="W359" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>40</v>
       </c>
@@ -26109,11 +26117,11 @@
       <c r="V360">
         <v>2.56</v>
       </c>
-      <c r="W360">
+      <c r="W360" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>40</v>
       </c>
@@ -26180,11 +26188,11 @@
       <c r="V361">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W361" t="s">
+      <c r="W361" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>40</v>
       </c>
@@ -26251,11 +26259,11 @@
       <c r="V362">
         <v>2.78</v>
       </c>
-      <c r="W362">
+      <c r="W362" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>41</v>
       </c>
@@ -26322,11 +26330,11 @@
       <c r="V363">
         <v>1.44</v>
       </c>
-      <c r="W363">
+      <c r="W363" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>41</v>
       </c>
@@ -26393,11 +26401,11 @@
       <c r="V364">
         <v>1.88</v>
       </c>
-      <c r="W364" t="s">
+      <c r="W364" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>41</v>
       </c>
@@ -26464,11 +26472,11 @@
       <c r="V365">
         <v>1.66</v>
       </c>
-      <c r="W365" t="s">
+      <c r="W365" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>41</v>
       </c>
@@ -26535,11 +26543,11 @@
       <c r="V366">
         <v>1.8</v>
       </c>
-      <c r="W366">
+      <c r="W366" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>41</v>
       </c>
@@ -26606,11 +26614,11 @@
       <c r="V367">
         <v>1.83</v>
       </c>
-      <c r="W367">
+      <c r="W367" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>41</v>
       </c>
@@ -26677,11 +26685,11 @@
       <c r="V368">
         <v>1.36</v>
       </c>
-      <c r="W368">
+      <c r="W368" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>41</v>
       </c>
@@ -26748,11 +26756,11 @@
       <c r="V369">
         <v>1.82</v>
       </c>
-      <c r="W369" t="s">
+      <c r="W369" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>41</v>
       </c>
@@ -26819,11 +26827,11 @@
       <c r="V370">
         <v>1.79</v>
       </c>
-      <c r="W370">
+      <c r="W370" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>41</v>
       </c>
@@ -26890,11 +26898,11 @@
       <c r="V371">
         <v>1.93</v>
       </c>
-      <c r="W371">
+      <c r="W371" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>41</v>
       </c>
@@ -26961,11 +26969,11 @@
       <c r="V372">
         <v>1.67</v>
       </c>
-      <c r="W372">
+      <c r="W372" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>41</v>
       </c>
@@ -27032,11 +27040,11 @@
       <c r="V373">
         <v>2.29</v>
       </c>
-      <c r="W373">
+      <c r="W373" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>41</v>
       </c>
@@ -27103,11 +27111,11 @@
       <c r="V374">
         <v>2.19</v>
       </c>
-      <c r="W374">
+      <c r="W374" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>41</v>
       </c>
@@ -27174,11 +27182,11 @@
       <c r="V375">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W375" t="s">
+      <c r="W375" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>41</v>
       </c>
@@ -27245,11 +27253,11 @@
       <c r="V376">
         <v>2.48</v>
       </c>
-      <c r="W376" t="s">
+      <c r="W376" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>41</v>
       </c>
@@ -27316,11 +27324,11 @@
       <c r="V377">
         <v>2.7</v>
       </c>
-      <c r="W377" t="s">
+      <c r="W377" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>41</v>
       </c>
@@ -27387,11 +27395,11 @@
       <c r="V378">
         <v>1.82</v>
       </c>
-      <c r="W378">
+      <c r="W378" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>41</v>
       </c>
@@ -27458,11 +27466,11 @@
       <c r="V379">
         <v>2.56</v>
       </c>
-      <c r="W379" t="s">
+      <c r="W379" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>41</v>
       </c>
@@ -27529,11 +27537,11 @@
       <c r="V380">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W380">
+      <c r="W380" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>41</v>
       </c>
@@ -27600,7 +27608,7 @@
       <c r="V381">
         <v>2.93</v>
       </c>
-      <c r="W381">
+      <c r="W381" s="1">
         <v>2</v>
       </c>
     </row>
